--- a/bioinfo-m2/Results/Bacteria/Proteobacteria/Total_Gammaproteobacteria.xlsx
+++ b/bioinfo-m2/Results/Bacteria/Proteobacteria/Total_Gammaproteobacteria.xlsx
@@ -34,7 +34,7 @@
     <t>Modification date</t>
   </si>
   <si>
-    <t>14-Dec-2017</t>
+    <t>19-Dec-2017</t>
   </si>
   <si>
     <t>BioProject</t>
@@ -3027,31 +3027,31 @@
         <v>18</v>
       </c>
       <c r="B2" t="n" s="22">
-        <v>1.7541328E7</v>
+        <v>1.7571418E7</v>
       </c>
       <c r="C2" t="n" s="23">
-        <v>2.825868326573978</v>
+        <v>2.8242973612358035</v>
       </c>
       <c r="D2" t="n" s="22">
-        <v>1.4280558E7</v>
+        <v>1.4304441E7</v>
       </c>
       <c r="E2" t="n" s="23">
-        <v>2.3005656434907684</v>
+        <v>2.299188088875539</v>
       </c>
       <c r="F2" t="n" s="22">
-        <v>1.0839051E7</v>
+        <v>1.0852158E7</v>
       </c>
       <c r="G2" t="n" s="23">
-        <v>1.7461466378725718</v>
+        <v>1.7442941260127112</v>
       </c>
       <c r="H2" t="n" s="22">
-        <v>1327905.0</v>
+        <v>1331042.0</v>
       </c>
       <c r="I2" t="n" s="22">
-        <v>786147.0</v>
+        <v>787975.0</v>
       </c>
       <c r="J2" t="n" s="22">
-        <v>315930.0</v>
+        <v>316320.0</v>
       </c>
       <c r="M2" t="s" s="19">
         <v>0</v>
@@ -3065,31 +3065,31 @@
         <v>19</v>
       </c>
       <c r="B3" t="n" s="24">
-        <v>1.2449902E7</v>
+        <v>1.2483588E7</v>
       </c>
       <c r="C3" t="n" s="25">
-        <v>2.0056510961285268</v>
+        <v>2.0065178944098276</v>
       </c>
       <c r="D3" t="n" s="24">
-        <v>1.073522E7</v>
+        <v>1.0754867E7</v>
       </c>
       <c r="E3" t="n" s="25">
-        <v>1.729419698257937</v>
+        <v>1.7286563035801679</v>
       </c>
       <c r="F3" t="n" s="24">
-        <v>6887605.0</v>
+        <v>6897029.0</v>
       </c>
       <c r="G3" t="n" s="25">
-        <v>1.1095776109683695</v>
+        <v>1.1085764851229887</v>
       </c>
       <c r="H3" t="n" s="26">
-        <v>1017562.0</v>
+        <v>1020722.0</v>
       </c>
       <c r="I3" t="n" s="26">
-        <v>885213.0</v>
+        <v>886682.0</v>
       </c>
       <c r="J3" t="n" s="26">
-        <v>397048.0</v>
+        <v>397448.0</v>
       </c>
     </row>
     <row r="4">
@@ -3097,37 +3097,37 @@
         <v>20</v>
       </c>
       <c r="B4" t="n" s="22">
-        <v>9841350.0</v>
+        <v>9864105.0</v>
       </c>
       <c r="C4" t="n" s="23">
-        <v>1.585419259917426</v>
+        <v>1.5854819299417326</v>
       </c>
       <c r="D4" t="n" s="22">
-        <v>1.785119E7</v>
+        <v>1.7878385E7</v>
       </c>
       <c r="E4" t="n" s="23">
-        <v>2.87578639500123</v>
+        <v>2.8736369243881046</v>
       </c>
       <c r="F4" t="n" s="22">
-        <v>3712259.0</v>
+        <v>3716669.0</v>
       </c>
       <c r="G4" t="n" s="23">
-        <v>0.5980365413689995</v>
+        <v>0.5973893768440837</v>
       </c>
       <c r="H4" t="n" s="22">
-        <v>607247.0</v>
+        <v>609365.0</v>
       </c>
       <c r="I4" t="n" s="22">
-        <v>1453878.0</v>
+        <v>1456661.0</v>
       </c>
       <c r="J4" t="n" s="22">
-        <v>125606.0</v>
+        <v>125859.0</v>
       </c>
       <c r="M4" t="s" s="19">
         <v>2</v>
       </c>
       <c r="N4" t="n" s="17">
-        <v>1.55234416E9</v>
+        <v>1.555871935E9</v>
       </c>
     </row>
     <row r="5">
@@ -3135,31 +3135,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="n" s="24">
-        <v>1.102009E7</v>
+        <v>1.103517E7</v>
       </c>
       <c r="C5" t="n" s="25">
-        <v>1.7753116119255414</v>
+        <v>1.7737100962363144</v>
       </c>
       <c r="D5" t="n" s="24">
-        <v>7175803.0</v>
+        <v>7185265.0</v>
       </c>
       <c r="E5" t="n" s="25">
-        <v>1.156005657920229</v>
+        <v>1.1549053684386756</v>
       </c>
       <c r="F5" t="n" s="24">
-        <v>8578303.0</v>
+        <v>8588413.0</v>
       </c>
       <c r="G5" t="n" s="25">
-        <v>1.3819452406029085</v>
+        <v>1.380436807837778</v>
       </c>
       <c r="H5" t="n" s="26">
-        <v>1112021.0</v>
+        <v>1114747.0</v>
       </c>
       <c r="I5" t="n" s="26">
-        <v>594773.0</v>
+        <v>596147.0</v>
       </c>
       <c r="J5" t="n" s="26">
-        <v>733782.0</v>
+        <v>735291.0</v>
       </c>
     </row>
     <row r="6">
@@ -3167,37 +3167,37 @@
         <v>22</v>
       </c>
       <c r="B6" t="n" s="22">
-        <v>4614252.0</v>
+        <v>4616906.0</v>
       </c>
       <c r="C6" t="n" s="23">
-        <v>0.7433455766650411</v>
+        <v>0.742086690605946</v>
       </c>
       <c r="D6" t="n" s="22">
-        <v>1.0238722E7</v>
+        <v>1.0260865E7</v>
       </c>
       <c r="E6" t="n" s="23">
-        <v>1.6494349917176268</v>
+        <v>1.6492541434901167</v>
       </c>
       <c r="F6" t="n" s="22">
-        <v>7246252.0</v>
+        <v>7257118.0</v>
       </c>
       <c r="G6" t="n" s="23">
-        <v>1.1673548327226617</v>
+        <v>1.1664544783794257</v>
       </c>
       <c r="H6" t="n" s="22">
-        <v>377371.0</v>
+        <v>377721.0</v>
       </c>
       <c r="I6" t="n" s="22">
-        <v>1203141.0</v>
+        <v>1206607.0</v>
       </c>
       <c r="J6" t="n" s="22">
-        <v>757732.0</v>
+        <v>759126.0</v>
       </c>
       <c r="M6" t="s" s="19">
         <v>3</v>
       </c>
       <c r="N6" t="n" s="17">
-        <v>1.2449902E7</v>
+        <v>1.2483588E7</v>
       </c>
     </row>
     <row r="7">
@@ -3205,31 +3205,31 @@
         <v>23</v>
       </c>
       <c r="B7" t="n" s="24">
-        <v>1.4756E7</v>
+        <v>1.4796911E7</v>
       </c>
       <c r="C7" t="n" s="25">
-        <v>2.3771582759826178</v>
+        <v>2.378344006826372</v>
       </c>
       <c r="D7" t="n" s="24">
-        <v>1.0451765E7</v>
+        <v>1.0481107E7</v>
       </c>
       <c r="E7" t="n" s="25">
-        <v>1.6837557378947863</v>
+        <v>1.684654183454637</v>
       </c>
       <c r="F7" t="n" s="24">
-        <v>4797442.0</v>
+        <v>4802970.0</v>
       </c>
       <c r="G7" t="n" s="25">
-        <v>0.7728570719603282</v>
+        <v>0.771993216318383</v>
       </c>
       <c r="H7" t="n" s="26">
-        <v>1307423.0</v>
+        <v>1310590.0</v>
       </c>
       <c r="I7" t="n" s="26">
-        <v>665826.0</v>
+        <v>667419.0</v>
       </c>
       <c r="J7" t="n" s="26">
-        <v>337206.0</v>
+        <v>337373.0</v>
       </c>
     </row>
     <row r="8">
@@ -3237,31 +3237,31 @@
         <v>24</v>
       </c>
       <c r="B8" t="n" s="22">
-        <v>7582474.0</v>
+        <v>7604571.0</v>
       </c>
       <c r="C8" t="n" s="23">
-        <v>1.2215194376201561</v>
+        <v>1.2223014561847152</v>
       </c>
       <c r="D8" t="n" s="22">
-        <v>1.4294132E7</v>
+        <v>1.4340455E7</v>
       </c>
       <c r="E8" t="n" s="23">
-        <v>2.3027523842361055</v>
+        <v>2.304976707936764</v>
       </c>
       <c r="F8" t="n" s="22">
-        <v>5004193.0</v>
+        <v>5012385.0</v>
       </c>
       <c r="G8" t="n" s="23">
-        <v>0.8061641911469426</v>
+        <v>0.805653005864292</v>
       </c>
       <c r="H8" t="n" s="22">
-        <v>582168.0</v>
+        <v>583203.0</v>
       </c>
       <c r="I8" t="n" s="22">
-        <v>1373504.0</v>
+        <v>1377136.0</v>
       </c>
       <c r="J8" t="n" s="22">
-        <v>356432.0</v>
+        <v>356652.0</v>
       </c>
       <c r="M8" t="s" s="19">
         <v>4</v>
@@ -3275,31 +3275,31 @@
         <v>25</v>
       </c>
       <c r="B9" t="n" s="24">
-        <v>5414435.0</v>
+        <v>5418251.0</v>
       </c>
       <c r="C9" t="n" s="25">
-        <v>0.8722532508823492</v>
+        <v>0.8708888492558344</v>
       </c>
       <c r="D9" t="n" s="24">
-        <v>6797627.0</v>
+        <v>6814159.0</v>
       </c>
       <c r="E9" t="n" s="25">
-        <v>1.0950823583689953</v>
+        <v>1.0952565855949248</v>
       </c>
       <c r="F9" t="n" s="24">
-        <v>7744314.0</v>
+        <v>7755100.0</v>
       </c>
       <c r="G9" t="n" s="25">
-        <v>1.2475914961309331</v>
+        <v>1.24649635368755</v>
       </c>
       <c r="H9" t="n" s="26">
-        <v>563435.0</v>
+        <v>564011.0</v>
       </c>
       <c r="I9" t="n" s="26">
-        <v>812701.0</v>
+        <v>815716.0</v>
       </c>
       <c r="J9" t="n" s="26">
-        <v>1028872.0</v>
+        <v>1030725.0</v>
       </c>
     </row>
     <row r="10">
@@ -3307,31 +3307,31 @@
         <v>26</v>
       </c>
       <c r="B10" t="n" s="22">
-        <v>1948692.0</v>
+        <v>1950615.0</v>
       </c>
       <c r="C10" t="n" s="23">
-        <v>0.3139298803972025</v>
+        <v>0.31352716082942067</v>
       </c>
       <c r="D10" t="n" s="22">
-        <v>8453387.0</v>
+        <v>8474744.0</v>
       </c>
       <c r="E10" t="n" s="23">
-        <v>1.3618215551053046</v>
+        <v>1.3621665090631252</v>
       </c>
       <c r="F10" t="n" s="22">
-        <v>1.1849638E7</v>
+        <v>1.1864165E7</v>
       </c>
       <c r="G10" t="n" s="23">
-        <v>1.9089499213267902</v>
+        <v>1.9069565075946735</v>
       </c>
       <c r="H10" t="n" s="22">
-        <v>130181.0</v>
+        <v>130427.0</v>
       </c>
       <c r="I10" t="n" s="22">
-        <v>895772.0</v>
+        <v>898977.0</v>
       </c>
       <c r="J10" t="n" s="22">
-        <v>1248977.0</v>
+        <v>1250686.0</v>
       </c>
       <c r="M10" t="s" s="19">
         <v>5</v>
@@ -3345,31 +3345,31 @@
         <v>27</v>
       </c>
       <c r="B11" t="n" s="24">
-        <v>1.0883057E7</v>
+        <v>1.0917022E7</v>
       </c>
       <c r="C11" t="n" s="25">
-        <v>1.7532359050922037</v>
+        <v>1.7547198767426293</v>
       </c>
       <c r="D11" t="n" s="24">
-        <v>1.3749636E7</v>
+        <v>1.3793674E7</v>
       </c>
       <c r="E11" t="n" s="25">
-        <v>2.2150353082914434</v>
+        <v>2.217091248978706</v>
       </c>
       <c r="F11" t="n" s="24">
-        <v>9370375.0</v>
+        <v>9380561.0</v>
       </c>
       <c r="G11" t="n" s="25">
-        <v>1.509546251037586</v>
+        <v>1.5077607099900243</v>
       </c>
       <c r="H11" t="n" s="26">
-        <v>624256.0</v>
+        <v>625934.0</v>
       </c>
       <c r="I11" t="n" s="26">
-        <v>1006437.0</v>
+        <v>1009323.0</v>
       </c>
       <c r="J11" t="n" s="26">
-        <v>646159.0</v>
+        <v>646487.0</v>
       </c>
     </row>
     <row r="12">
@@ -3377,31 +3377,31 @@
         <v>28</v>
       </c>
       <c r="B12" t="n" s="22">
-        <v>1163919.0</v>
+        <v>1165676.0</v>
       </c>
       <c r="C12" t="n" s="23">
-        <v>0.18750472237892468</v>
+        <v>0.18736197903071378</v>
       </c>
       <c r="D12" t="n" s="22">
-        <v>1.296696E7</v>
+        <v>1.3006405E7</v>
       </c>
       <c r="E12" t="n" s="23">
-        <v>2.0889479722374333</v>
+        <v>2.0905515605322327</v>
       </c>
       <c r="F12" t="n" s="22">
-        <v>7641022.0</v>
+        <v>7649976.0</v>
       </c>
       <c r="G12" t="n" s="23">
-        <v>1.230951388199055</v>
+        <v>1.2295995138421514</v>
       </c>
       <c r="H12" t="n" s="22">
-        <v>95345.0</v>
+        <v>95472.0</v>
       </c>
       <c r="I12" t="n" s="22">
-        <v>1339259.0</v>
+        <v>1343363.0</v>
       </c>
       <c r="J12" t="n" s="22">
-        <v>786206.0</v>
+        <v>786736.0</v>
       </c>
       <c r="M12" t="s" s="19">
         <v>7</v>
@@ -3415,31 +3415,31 @@
         <v>29</v>
       </c>
       <c r="B13" t="n" s="24">
-        <v>5458789.0</v>
+        <v>5463945.0</v>
       </c>
       <c r="C13" t="n" s="25">
-        <v>0.8793985801160802</v>
+        <v>0.8782333585961909</v>
       </c>
       <c r="D13" t="n" s="24">
-        <v>6269758.0</v>
+        <v>6284040.0</v>
       </c>
       <c r="E13" t="n" s="25">
-        <v>1.010043854574968</v>
+        <v>1.0100492509995629</v>
       </c>
       <c r="F13" t="n" s="24">
-        <v>6541468.0</v>
+        <v>6548294.0</v>
       </c>
       <c r="G13" t="n" s="25">
-        <v>1.053815721962284</v>
+        <v>1.0525234482951944</v>
       </c>
       <c r="H13" t="n" s="26">
-        <v>660271.0</v>
+        <v>661248.0</v>
       </c>
       <c r="I13" t="n" s="26">
-        <v>930478.0</v>
+        <v>933809.0</v>
       </c>
       <c r="J13" t="n" s="26">
-        <v>867683.0</v>
+        <v>868983.0</v>
       </c>
     </row>
     <row r="14">
@@ -3447,31 +3447,31 @@
         <v>30</v>
       </c>
       <c r="B14" t="n" s="22">
-        <v>3709905.0</v>
+        <v>3713354.0</v>
       </c>
       <c r="C14" t="n" s="23">
-        <v>0.5976573172851243</v>
+        <v>0.5968565487164676</v>
       </c>
       <c r="D14" t="n" s="22">
-        <v>1.1724462E7</v>
+        <v>1.1747869E7</v>
       </c>
       <c r="E14" t="n" s="23">
-        <v>1.888784350416354</v>
+        <v>1.8882639646295991</v>
       </c>
       <c r="F14" t="n" s="22">
-        <v>2859995.0</v>
+        <v>2864211.0</v>
       </c>
       <c r="G14" t="n" s="23">
-        <v>0.46073873566812873</v>
+        <v>0.46037169961596514</v>
       </c>
       <c r="H14" t="n" s="22">
-        <v>386410.0</v>
+        <v>386840.0</v>
       </c>
       <c r="I14" t="n" s="22">
-        <v>1715194.0</v>
+        <v>1719315.0</v>
       </c>
       <c r="J14" t="n" s="22">
-        <v>341699.0</v>
+        <v>342170.0</v>
       </c>
     </row>
     <row r="15">
@@ -3479,31 +3479,31 @@
         <v>31</v>
       </c>
       <c r="B15" t="n" s="24">
-        <v>1.6434605E7</v>
+        <v>1.6479979E7</v>
       </c>
       <c r="C15" t="n" s="25">
-        <v>2.6475777506272236</v>
+        <v>2.6488676783468166</v>
       </c>
       <c r="D15" t="n" s="24">
-        <v>1.0839289E7</v>
+        <v>1.0862754E7</v>
       </c>
       <c r="E15" t="n" s="25">
-        <v>1.7461849791350876</v>
+        <v>1.7459972472314795</v>
       </c>
       <c r="F15" t="n" s="24">
-        <v>4016694.0</v>
+        <v>4021542.0</v>
       </c>
       <c r="G15" t="n" s="25">
-        <v>0.6470803323522449</v>
+        <v>0.6463923662107951</v>
       </c>
       <c r="H15" t="n" s="26">
-        <v>1285210.0</v>
+        <v>1288778.0</v>
       </c>
       <c r="I15" t="n" s="26">
-        <v>754931.0</v>
+        <v>756038.0</v>
       </c>
       <c r="J15" t="n" s="26">
-        <v>174326.0</v>
+        <v>174476.0</v>
       </c>
     </row>
     <row r="16">
@@ -3511,31 +3511,31 @@
         <v>32</v>
       </c>
       <c r="B16" t="n" s="22">
-        <v>1.5566807E7</v>
+        <v>1.560343E7</v>
       </c>
       <c r="C16" t="n" s="23">
-        <v>2.507777452607356</v>
+        <v>2.5079777952597553</v>
       </c>
       <c r="D16" t="n" s="22">
-        <v>1.6148259E7</v>
+        <v>1.6171375E7</v>
       </c>
       <c r="E16" t="n" s="23">
-        <v>2.601448056692924</v>
+        <v>2.5992649961462786</v>
       </c>
       <c r="F16" t="n" s="22">
-        <v>2384638.0</v>
+        <v>2387697.0</v>
       </c>
       <c r="G16" t="n" s="23">
-        <v>0.3841597964843208</v>
+        <v>0.3837804289062297</v>
       </c>
       <c r="H16" t="n" s="22">
-        <v>1080516.0</v>
+        <v>1083918.0</v>
       </c>
       <c r="I16" t="n" s="22">
-        <v>1051502.0</v>
+        <v>1052859.0</v>
       </c>
       <c r="J16" t="n" s="22">
-        <v>42955.0</v>
+        <v>43016.0</v>
       </c>
     </row>
     <row r="17">
@@ -3543,31 +3543,31 @@
         <v>33</v>
       </c>
       <c r="B17" t="n" s="24">
-        <v>1.5927163E7</v>
+        <v>1.5953578E7</v>
       </c>
       <c r="C17" t="n" s="25">
-        <v>2.565829990402151</v>
+        <v>2.5642579470632123</v>
       </c>
       <c r="D17" t="n" s="24">
-        <v>7738561.0</v>
+        <v>7749190.0</v>
       </c>
       <c r="E17" t="n" s="25">
-        <v>1.2466647008231448</v>
+        <v>1.245546424808452</v>
       </c>
       <c r="F17" t="n" s="24">
-        <v>8572364.0</v>
+        <v>8580359.0</v>
       </c>
       <c r="G17" t="n" s="25">
-        <v>1.3809884811151707</v>
+        <v>1.3791422685497483</v>
       </c>
       <c r="H17" t="n" s="26">
-        <v>1445547.0</v>
+        <v>1449289.0</v>
       </c>
       <c r="I17" t="n" s="26">
-        <v>447009.0</v>
+        <v>447802.0</v>
       </c>
       <c r="J17" t="n" s="26">
-        <v>443050.0</v>
+        <v>443572.0</v>
       </c>
     </row>
     <row r="18">
@@ -3575,31 +3575,31 @@
         <v>34</v>
       </c>
       <c r="B18" t="n" s="22">
-        <v>1.1007977E7</v>
+        <v>1.1018515E7</v>
       </c>
       <c r="C18" t="n" s="23">
-        <v>1.7733602349807747</v>
+        <v>1.7710330970008865</v>
       </c>
       <c r="D18" t="n" s="22">
-        <v>6346689.0</v>
+        <v>6351988.0</v>
       </c>
       <c r="E18" t="n" s="23">
-        <v>1.0224372649388618</v>
+        <v>1.0209707006572544</v>
       </c>
       <c r="F18" t="n" s="22">
-        <v>1.5983359E7</v>
+        <v>1.6025442E7</v>
       </c>
       <c r="G18" t="n" s="23">
-        <v>2.574883039092658</v>
+        <v>2.5758088250610975</v>
       </c>
       <c r="H18" t="n" s="22">
-        <v>713097.0</v>
+        <v>713683.0</v>
       </c>
       <c r="I18" t="n" s="22">
-        <v>294815.0</v>
+        <v>295041.0</v>
       </c>
       <c r="J18" t="n" s="22">
-        <v>1210198.0</v>
+        <v>1214164.0</v>
       </c>
     </row>
     <row r="19">
@@ -3607,31 +3607,31 @@
         <v>35</v>
       </c>
       <c r="B19" t="n" s="24">
-        <v>6721880.0</v>
+        <v>6740557.0</v>
       </c>
       <c r="C19" t="n" s="25">
-        <v>1.0828796877312306</v>
+        <v>1.0834263545696496</v>
       </c>
       <c r="D19" t="n" s="24">
-        <v>6102203.0</v>
+        <v>6108174.0</v>
       </c>
       <c r="E19" t="n" s="25">
-        <v>0.9830511224705855</v>
+        <v>0.9817818749840874</v>
       </c>
       <c r="F19" t="n" s="24">
-        <v>1.0200277E7</v>
+        <v>1.0226172E7</v>
       </c>
       <c r="G19" t="n" s="25">
-        <v>1.643241589039384</v>
+        <v>1.643677852017604</v>
       </c>
       <c r="H19" t="n" s="26">
-        <v>612596.0</v>
+        <v>614339.0</v>
       </c>
       <c r="I19" t="n" s="26">
-        <v>658963.0</v>
+        <v>659441.0</v>
       </c>
       <c r="J19" t="n" s="26">
-        <v>1129702.0</v>
+        <v>1132645.0</v>
       </c>
     </row>
     <row r="20">
@@ -3639,31 +3639,31 @@
         <v>36</v>
       </c>
       <c r="B20" t="n" s="22">
-        <v>1.7120928E7</v>
+        <v>1.7181818E7</v>
       </c>
       <c r="C20" t="n" s="23">
-        <v>2.7581428359787563</v>
+        <v>2.7616759921500833</v>
       </c>
       <c r="D20" t="n" s="22">
-        <v>8333748.0</v>
+        <v>8340167.0</v>
       </c>
       <c r="E20" t="n" s="23">
-        <v>1.3425479823904574</v>
+        <v>1.340535615871521</v>
       </c>
       <c r="F20" t="n" s="22">
-        <v>8850205.0</v>
+        <v>8877245.0</v>
       </c>
       <c r="G20" t="n" s="23">
-        <v>1.4257480387566241</v>
+        <v>1.4268614877037091</v>
       </c>
       <c r="H20" t="n" s="22">
-        <v>1301505.0</v>
+        <v>1305287.0</v>
       </c>
       <c r="I20" t="n" s="22">
-        <v>578692.0</v>
+        <v>578940.0</v>
       </c>
       <c r="J20" t="n" s="22">
-        <v>337917.0</v>
+        <v>338607.0</v>
       </c>
     </row>
     <row r="21">
@@ -3671,31 +3671,31 @@
         <v>37</v>
       </c>
       <c r="B21" t="n" s="24">
-        <v>7372685.0</v>
+        <v>7385779.0</v>
       </c>
       <c r="C21" t="n" s="25">
-        <v>1.1877229034943688</v>
+        <v>1.187134478297131</v>
       </c>
       <c r="D21" t="n" s="24">
-        <v>4327598.0</v>
+        <v>4331926.0</v>
       </c>
       <c r="E21" t="n" s="25">
-        <v>0.6971662646263096</v>
+        <v>0.6962811522023306</v>
       </c>
       <c r="F21" t="n" s="24">
-        <v>1.3506227E7</v>
+        <v>1.3537487E7</v>
       </c>
       <c r="G21" t="n" s="25">
-        <v>2.1758226680909383</v>
+        <v>2.1759136804931734</v>
       </c>
       <c r="H21" t="n" s="26">
-        <v>616072.0</v>
+        <v>617110.0</v>
       </c>
       <c r="I21" t="n" s="26">
-        <v>285611.0</v>
+        <v>285912.0</v>
       </c>
       <c r="J21" t="n" s="26">
-        <v>1363574.0</v>
+        <v>1367189.0</v>
       </c>
     </row>
     <row r="22">
@@ -3703,31 +3703,31 @@
         <v>38</v>
       </c>
       <c r="B22" t="n" s="22">
-        <v>5063997.0</v>
+        <v>5067909.0</v>
       </c>
       <c r="C22" t="n" s="23">
-        <v>0.8157984804893704</v>
+        <v>0.8145775153538083</v>
       </c>
       <c r="D22" t="n" s="22">
-        <v>1.2613697E7</v>
+        <v>1.2648183E7</v>
       </c>
       <c r="E22" t="n" s="23">
-        <v>2.032038100724256</v>
+        <v>2.032973654791409</v>
       </c>
       <c r="F22" t="n" s="22">
-        <v>1.036636E7</v>
+        <v>1.039254E7</v>
       </c>
       <c r="G22" t="n" s="23">
-        <v>1.6699971852680382</v>
+        <v>1.6704185910629148</v>
       </c>
       <c r="H22" t="n" s="22">
-        <v>411515.0</v>
+        <v>411758.0</v>
       </c>
       <c r="I22" t="n" s="22">
-        <v>1129993.0</v>
+        <v>1133044.0</v>
       </c>
       <c r="J22" t="n" s="22">
-        <v>783498.0</v>
+        <v>785256.0</v>
       </c>
     </row>
     <row r="23">
@@ -3735,31 +3735,31 @@
         <v>39</v>
       </c>
       <c r="B23" t="n" s="24">
-        <v>4996859.0</v>
+        <v>5005286.0</v>
       </c>
       <c r="C23" t="n" s="25">
-        <v>0.8049827003095844</v>
+        <v>0.8045119660821063</v>
       </c>
       <c r="D23" t="n" s="24">
-        <v>8320189.0</v>
+        <v>8337073.0</v>
       </c>
       <c r="E23" t="n" s="25">
-        <v>1.3403636581112457</v>
+        <v>1.3400383096190795</v>
       </c>
       <c r="F23" t="n" s="24">
-        <v>6388133.0</v>
+        <v>6403405.0</v>
       </c>
       <c r="G23" t="n" s="25">
-        <v>1.0291137997443527</v>
+        <v>1.0292350819054075</v>
       </c>
       <c r="H23" t="n" s="26">
-        <v>582193.0</v>
+        <v>583142.0</v>
       </c>
       <c r="I23" t="n" s="26">
-        <v>1170657.0</v>
+        <v>1173236.0</v>
       </c>
       <c r="J23" t="n" s="26">
-        <v>871977.0</v>
+        <v>874117.0</v>
       </c>
     </row>
     <row r="24">
@@ -3767,31 +3767,31 @@
         <v>40</v>
       </c>
       <c r="B24" t="n" s="22">
-        <v>1.2399694E7</v>
+        <v>1.2447589E7</v>
       </c>
       <c r="C24" t="n" s="23">
-        <v>1.9975627007150998</v>
+        <v>2.0007316863356057</v>
       </c>
       <c r="D24" t="n" s="22">
-        <v>1.7902198E7</v>
+        <v>1.7958034E7</v>
       </c>
       <c r="E24" t="n" s="23">
-        <v>2.884003668607988</v>
+        <v>2.886439104640436</v>
       </c>
       <c r="F24" t="n" s="22">
-        <v>9041854.0</v>
+        <v>9070383.0</v>
       </c>
       <c r="G24" t="n" s="23">
-        <v>1.4566222598486402</v>
+        <v>1.4579050348866605</v>
       </c>
       <c r="H24" t="n" s="22">
-        <v>626005.0</v>
+        <v>627729.0</v>
       </c>
       <c r="I24" t="n" s="22">
-        <v>1335828.0</v>
+        <v>1338578.0</v>
       </c>
       <c r="J24" t="n" s="22">
-        <v>379268.0</v>
+        <v>379724.0</v>
       </c>
     </row>
     <row r="25">
@@ -3799,31 +3799,31 @@
         <v>41</v>
       </c>
       <c r="B25" t="n" s="24">
-        <v>4986925.0</v>
+        <v>4991680.0</v>
       </c>
       <c r="C25" t="n" s="25">
-        <v>0.8033823553439019</v>
+        <v>0.8023250401381117</v>
       </c>
       <c r="D25" t="n" s="24">
-        <v>7657348.0</v>
+        <v>7677365.0</v>
       </c>
       <c r="E25" t="n" s="25">
-        <v>1.2335814699294487</v>
+        <v>1.2340018153767736</v>
       </c>
       <c r="F25" t="n" s="24">
-        <v>1.2232718E7</v>
+        <v>1.226295E7</v>
       </c>
       <c r="G25" t="n" s="25">
-        <v>1.9706632442031402</v>
+        <v>1.9710542043884334</v>
       </c>
       <c r="H25" t="n" s="26">
-        <v>598106.0</v>
+        <v>598469.0</v>
       </c>
       <c r="I25" t="n" s="26">
-        <v>597499.0</v>
+        <v>598977.0</v>
       </c>
       <c r="J25" t="n" s="26">
-        <v>1159578.0</v>
+        <v>1162862.0</v>
       </c>
     </row>
     <row r="26">
@@ -3831,31 +3831,31 @@
         <v>42</v>
       </c>
       <c r="B26" t="n" s="22">
-        <v>2463595.0</v>
+        <v>2465619.0</v>
       </c>
       <c r="C26" t="n" s="23">
-        <v>0.39687959087282443</v>
+        <v>0.39630502418830743</v>
       </c>
       <c r="D26" t="n" s="22">
-        <v>8498969.0</v>
+        <v>8520907.0</v>
       </c>
       <c r="E26" t="n" s="23">
-        <v>1.369164712365798</v>
+        <v>1.3695864019304356</v>
       </c>
       <c r="F26" t="n" s="22">
-        <v>2.2842968E7</v>
+        <v>2.2902202E7</v>
       </c>
       <c r="G26" t="n" s="23">
-        <v>3.6799505576854235</v>
+        <v>3.6811274238134537</v>
       </c>
       <c r="H26" t="n" s="22">
-        <v>140161.0</v>
+        <v>140232.0</v>
       </c>
       <c r="I26" t="n" s="22">
-        <v>402331.0</v>
+        <v>403002.0</v>
       </c>
       <c r="J26" t="n" s="22">
-        <v>1649186.0</v>
+        <v>1653108.0</v>
       </c>
     </row>
     <row r="27">
@@ -3863,31 +3863,31 @@
         <v>43</v>
       </c>
       <c r="B27" t="n" s="24">
-        <v>1.5136175E7</v>
+        <v>1.5184623E7</v>
       </c>
       <c r="C27" t="n" s="25">
-        <v>2.4384036099194364</v>
+        <v>2.440661913014675</v>
       </c>
       <c r="D27" t="n" s="24">
-        <v>1.5990416E7</v>
+        <v>1.6057863E7</v>
       </c>
       <c r="E27" t="n" s="25">
-        <v>2.576019905855575</v>
+        <v>2.581019932368921</v>
       </c>
       <c r="F27" t="n" s="24">
-        <v>1.7627812E7</v>
+        <v>1.7685816E7</v>
       </c>
       <c r="G27" t="n" s="25">
-        <v>2.8398007036639807</v>
+        <v>2.842684833978792</v>
       </c>
       <c r="H27" t="n" s="26">
-        <v>659478.0</v>
+        <v>660402.0</v>
       </c>
       <c r="I27" t="n" s="26">
-        <v>739861.0</v>
+        <v>742213.0</v>
       </c>
       <c r="J27" t="n" s="26">
-        <v>937816.0</v>
+        <v>939454.0</v>
       </c>
     </row>
     <row r="28">
@@ -3895,31 +3895,31 @@
         <v>44</v>
       </c>
       <c r="B28" t="n" s="22">
-        <v>4441198.0</v>
+        <v>4455962.0</v>
       </c>
       <c r="C28" t="n" s="23">
-        <v>0.7154669680792526</v>
+        <v>0.7162177644608428</v>
       </c>
       <c r="D28" t="n" s="22">
-        <v>1.5420227E7</v>
+        <v>1.5471669E7</v>
       </c>
       <c r="E28" t="n" s="23">
-        <v>2.4841637456343597</v>
+        <v>2.4867995246948076</v>
       </c>
       <c r="F28" t="n" s="22">
-        <v>1.7127773E7</v>
+        <v>1.7192233E7</v>
       </c>
       <c r="G28" t="n" s="23">
-        <v>2.759245550020441</v>
+        <v>2.7633500207923523</v>
       </c>
       <c r="H28" t="n" s="22">
-        <v>175855.0</v>
+        <v>176040.0</v>
       </c>
       <c r="I28" t="n" s="22">
-        <v>999377.0</v>
+        <v>1001038.0</v>
       </c>
       <c r="J28" t="n" s="22">
-        <v>1127850.0</v>
+        <v>1130840.0</v>
       </c>
     </row>
     <row r="29">
@@ -3927,31 +3927,31 @@
         <v>45</v>
       </c>
       <c r="B29" t="n" s="24">
-        <v>9951466.0</v>
+        <v>9969089.0</v>
       </c>
       <c r="C29" t="n" s="25">
-        <v>1.6031586988384143</v>
+        <v>1.6023562672417717</v>
       </c>
       <c r="D29" t="n" s="24">
-        <v>5362064.0</v>
+        <v>5375543.0</v>
       </c>
       <c r="E29" t="n" s="25">
-        <v>0.8638164010537042</v>
+        <v>0.8640242870614993</v>
       </c>
       <c r="F29" t="n" s="24">
-        <v>1.1598133E7</v>
+        <v>1.1632544E7</v>
       </c>
       <c r="G29" t="n" s="25">
-        <v>1.8684330338097794</v>
+        <v>1.8697274928898384</v>
       </c>
       <c r="H29" t="n" s="26">
-        <v>890823.0</v>
+        <v>891855.0</v>
       </c>
       <c r="I29" t="n" s="26">
-        <v>302336.0</v>
+        <v>302918.0</v>
       </c>
       <c r="J29" t="n" s="26">
-        <v>1123278.0</v>
+        <v>1126726.0</v>
       </c>
     </row>
     <row r="30">
@@ -3959,31 +3959,31 @@
         <v>46</v>
       </c>
       <c r="B30" t="n" s="22">
-        <v>3647066.0</v>
+        <v>3649839.0</v>
       </c>
       <c r="C30" t="n" s="23">
-        <v>0.5875340962967486</v>
+        <v>0.5866476260843334</v>
       </c>
       <c r="D30" t="n" s="22">
-        <v>5274681.0</v>
+        <v>5279365.0</v>
       </c>
       <c r="E30" t="n" s="23">
-        <v>0.8497391970939463</v>
+        <v>0.8485653598645628</v>
       </c>
       <c r="F30" t="n" s="22">
-        <v>6730166.0</v>
+        <v>6750262.0</v>
       </c>
       <c r="G30" t="n" s="23">
-        <v>1.084214543618652</v>
+        <v>1.084986263160453</v>
       </c>
       <c r="H30" t="n" s="22">
-        <v>503260.0</v>
+        <v>503791.0</v>
       </c>
       <c r="I30" t="n" s="22">
-        <v>797657.0</v>
+        <v>798475.0</v>
       </c>
       <c r="J30" t="n" s="22">
-        <v>1145062.0</v>
+        <v>1148934.0</v>
       </c>
     </row>
     <row r="31">
@@ -3991,31 +3991,31 @@
         <v>47</v>
       </c>
       <c r="B31" t="n" s="24">
-        <v>7915449.0</v>
+        <v>7927105.0</v>
       </c>
       <c r="C31" t="n" s="25">
-        <v>1.2751609581504701</v>
+        <v>1.2741431416485083</v>
       </c>
       <c r="D31" t="n" s="24">
-        <v>4546220.0</v>
+        <v>4550261.0</v>
       </c>
       <c r="E31" t="n" s="25">
-        <v>0.7323857751042082</v>
+        <v>0.7313746753525635</v>
       </c>
       <c r="F31" t="n" s="24">
-        <v>5855693.0</v>
+        <v>5870116.0</v>
       </c>
       <c r="G31" t="n" s="25">
-        <v>0.9433389181731826</v>
+        <v>0.9435182253901233</v>
       </c>
       <c r="H31" t="n" s="26">
-        <v>1111565.0</v>
+        <v>1113732.0</v>
       </c>
       <c r="I31" t="n" s="26">
-        <v>662160.0</v>
+        <v>662957.0</v>
       </c>
       <c r="J31" t="n" s="26">
-        <v>692602.0</v>
+        <v>695302.0</v>
       </c>
     </row>
     <row r="32">
@@ -4023,31 +4023,31 @@
         <v>48</v>
       </c>
       <c r="B32" t="n" s="22">
-        <v>2.9919412E7</v>
+        <v>3.0039518E7</v>
       </c>
       <c r="C32" t="n" s="23">
-        <v>4.8199497050917355</v>
+        <v>4.82832583119902</v>
       </c>
       <c r="D32" t="n" s="22">
-        <v>9922313.0</v>
+        <v>9930268.0</v>
       </c>
       <c r="E32" t="n" s="23">
-        <v>1.598462216375706</v>
+        <v>1.5961164721460923</v>
       </c>
       <c r="F32" t="n" s="22">
-        <v>7078842.0</v>
+        <v>7099832.0</v>
       </c>
       <c r="G32" t="n" s="23">
-        <v>1.1403854597908205</v>
+        <v>1.1411735115980692</v>
       </c>
       <c r="H32" t="n" s="22">
-        <v>1436429.0</v>
+        <v>1440614.0</v>
       </c>
       <c r="I32" t="n" s="22">
-        <v>569536.0</v>
+        <v>569757.0</v>
       </c>
       <c r="J32" t="n" s="22">
-        <v>110581.0</v>
+        <v>110697.0</v>
       </c>
     </row>
     <row r="33">
@@ -4055,31 +4055,31 @@
         <v>49</v>
       </c>
       <c r="B33" t="n" s="24">
-        <v>6970828.0</v>
+        <v>6976566.0</v>
       </c>
       <c r="C33" t="n" s="25">
-        <v>1.1229846483228085</v>
+        <v>1.1213606633390332</v>
       </c>
       <c r="D33" t="n" s="24">
-        <v>5168624.0</v>
+        <v>5174074.0</v>
       </c>
       <c r="E33" t="n" s="25">
-        <v>0.832653653906369</v>
+        <v>0.8316416776972001</v>
       </c>
       <c r="F33" t="n" s="24">
-        <v>1.0344642E7</v>
+        <v>1.0365611E7</v>
       </c>
       <c r="G33" t="n" s="25">
-        <v>1.6664984645145962</v>
+        <v>1.6660902264630448</v>
       </c>
       <c r="H33" t="n" s="26">
-        <v>711544.0</v>
+        <v>712417.0</v>
       </c>
       <c r="I33" t="n" s="26">
-        <v>419068.0</v>
+        <v>419831.0</v>
       </c>
       <c r="J33" t="n" s="26">
-        <v>1220463.0</v>
+        <v>1224134.0</v>
       </c>
     </row>
     <row r="34">
@@ -4087,31 +4087,31 @@
         <v>50</v>
       </c>
       <c r="B34" t="n" s="22">
-        <v>2.148846E7</v>
+        <v>2.1528019E7</v>
       </c>
       <c r="C34" t="n" s="23">
-        <v>3.461742377820645</v>
+        <v>3.4602516003167327</v>
       </c>
       <c r="D34" t="n" s="22">
-        <v>2704948.0</v>
+        <v>2707260.0</v>
       </c>
       <c r="E34" t="n" s="23">
-        <v>0.43576101411646995</v>
+        <v>0.4351445782110039</v>
       </c>
       <c r="F34" t="n" s="22">
-        <v>1.1144507E7</v>
+        <v>1.1172147E7</v>
       </c>
       <c r="G34" t="n" s="23">
-        <v>1.7953549096500554</v>
+        <v>1.7957267473483645</v>
       </c>
       <c r="H34" t="n" s="22">
-        <v>1614872.0</v>
+        <v>1618099.0</v>
       </c>
       <c r="I34" t="n" s="22">
-        <v>66429.0</v>
+        <v>66504.0</v>
       </c>
       <c r="J34" t="n" s="22">
-        <v>466531.0</v>
+        <v>468075.0</v>
       </c>
     </row>
     <row r="35">
@@ -4119,31 +4119,31 @@
         <v>51</v>
       </c>
       <c r="B35" t="n" s="24">
-        <v>1.4370059E7</v>
+        <v>1.4410494E7</v>
       </c>
       <c r="C35" t="n" s="25">
-        <v>2.3149840524673695</v>
+        <v>2.316234249182643</v>
       </c>
       <c r="D35" t="n" s="24">
-        <v>2199111.0</v>
+        <v>2202317.0</v>
       </c>
       <c r="E35" t="n" s="25">
-        <v>0.3542718157667668</v>
+        <v>0.3539838442011198</v>
       </c>
       <c r="F35" t="n" s="24">
-        <v>8199661.0</v>
+        <v>8222163.0</v>
       </c>
       <c r="G35" t="n" s="25">
-        <v>1.32094686950406</v>
+        <v>1.3215685418530627</v>
       </c>
       <c r="H35" t="n" s="26">
-        <v>1449947.0</v>
+        <v>1453475.0</v>
       </c>
       <c r="I35" t="n" s="26">
-        <v>168143.0</v>
+        <v>168267.0</v>
       </c>
       <c r="J35" t="n" s="26">
-        <v>675975.0</v>
+        <v>677186.0</v>
       </c>
     </row>
     <row r="36">
@@ -4151,31 +4151,31 @@
         <v>52</v>
       </c>
       <c r="B36" t="n" s="22">
-        <v>1.4473284E7</v>
+        <v>1.4508757E7</v>
       </c>
       <c r="C36" t="n" s="23">
-        <v>2.331613366850556</v>
+        <v>2.332028303572967</v>
       </c>
       <c r="D36" t="n" s="22">
-        <v>2485031.0</v>
+        <v>2487108.0</v>
       </c>
       <c r="E36" t="n" s="23">
-        <v>0.40033288206311746</v>
+        <v>0.3997590041685001</v>
       </c>
       <c r="F36" t="n" s="22">
-        <v>3756617.0</v>
+        <v>3765452.0</v>
       </c>
       <c r="G36" t="n" s="23">
-        <v>0.6051825149936971</v>
+        <v>0.6052303887745474</v>
       </c>
       <c r="H36" t="n" s="22">
-        <v>1751214.0</v>
+        <v>1755326.0</v>
       </c>
       <c r="I36" t="n" s="22">
-        <v>217390.0</v>
+        <v>217567.0</v>
       </c>
       <c r="J36" t="n" s="22">
-        <v>275742.0</v>
+        <v>276299.0</v>
       </c>
     </row>
     <row r="37">
@@ -4183,31 +4183,31 @@
         <v>53</v>
       </c>
       <c r="B37" t="n" s="24">
-        <v>1.8533968E7</v>
+        <v>1.8567374E7</v>
       </c>
       <c r="C37" t="n" s="25">
-        <v>2.985780388858567</v>
+        <v>2.984379825992317</v>
       </c>
       <c r="D37" t="n" s="24">
-        <v>1631021.0</v>
+        <v>1632535.0</v>
       </c>
       <c r="E37" t="n" s="25">
-        <v>0.2627537997053026</v>
+        <v>0.26240137777298866</v>
       </c>
       <c r="F37" t="n" s="24">
-        <v>1.505848E7</v>
+        <v>1.5100576E7</v>
       </c>
       <c r="G37" t="n" s="25">
-        <v>2.425887120880912</v>
+        <v>2.427152831373126</v>
       </c>
       <c r="H37" t="n" s="26">
-        <v>1253364.0</v>
+        <v>1255361.0</v>
       </c>
       <c r="I37" t="n" s="26">
-        <v>39340.0</v>
+        <v>39368.0</v>
       </c>
       <c r="J37" t="n" s="26">
-        <v>855179.0</v>
+        <v>857996.0</v>
       </c>
     </row>
     <row r="38">
@@ -4215,31 +4215,31 @@
         <v>54</v>
       </c>
       <c r="B38" t="n" s="22">
-        <v>1.0742415E7</v>
+        <v>1.0753039E7</v>
       </c>
       <c r="C38" t="n" s="23">
-        <v>1.730578796509204</v>
+        <v>1.7283624846307615</v>
       </c>
       <c r="D38" t="n" s="22">
-        <v>1.2313956E7</v>
+        <v>1.2353992E7</v>
       </c>
       <c r="E38" t="n" s="23">
-        <v>1.9837505025403779</v>
+        <v>1.9856876096356155</v>
       </c>
       <c r="F38" t="n" s="22">
-        <v>1.5107819E7</v>
+        <v>1.5158218E7</v>
       </c>
       <c r="G38" t="n" s="23">
-        <v>2.4338355223568335</v>
+        <v>2.4364177722274354</v>
       </c>
       <c r="H38" t="n" s="22">
-        <v>670141.0</v>
+        <v>670488.0</v>
       </c>
       <c r="I38" t="n" s="22">
-        <v>613256.0</v>
+        <v>614952.0</v>
       </c>
       <c r="J38" t="n" s="22">
-        <v>959606.0</v>
+        <v>962404.0</v>
       </c>
     </row>
     <row r="39">
@@ -4247,31 +4247,31 @@
         <v>55</v>
       </c>
       <c r="B39" t="n" s="24">
-        <v>2.1395804E7</v>
+        <v>2.1458184E7</v>
       </c>
       <c r="C39" t="n" s="25">
-        <v>3.4468157054690973</v>
+        <v>3.449026848494091</v>
       </c>
       <c r="D39" t="n" s="24">
-        <v>1.1586929E7</v>
+        <v>1.162248E7</v>
       </c>
       <c r="E39" t="n" s="25">
-        <v>1.8666280947121847</v>
+        <v>1.8681098813434356</v>
       </c>
       <c r="F39" t="n" s="24">
-        <v>1.0367429E7</v>
+        <v>1.0402133E7</v>
       </c>
       <c r="G39" t="n" s="25">
-        <v>1.6701693987538762</v>
+        <v>1.6719604976174303</v>
       </c>
       <c r="H39" t="n" s="26">
-        <v>1468683.0</v>
+        <v>1472124.0</v>
       </c>
       <c r="I39" t="n" s="26">
-        <v>398276.0</v>
+        <v>398949.0</v>
       </c>
       <c r="J39" t="n" s="26">
-        <v>416406.0</v>
+        <v>417147.0</v>
       </c>
     </row>
     <row r="40">
@@ -4279,31 +4279,31 @@
         <v>56</v>
       </c>
       <c r="B40" t="n" s="22">
-        <v>1.9227832E7</v>
+        <v>1.9295403E7</v>
       </c>
       <c r="C40" t="n" s="23">
-        <v>3.0975603122799815</v>
+        <v>3.1013977231024503</v>
       </c>
       <c r="D40" t="n" s="22">
-        <v>1.9024132E7</v>
+        <v>1.9091365E7</v>
       </c>
       <c r="E40" t="n" s="23">
-        <v>3.0647447023031815</v>
+        <v>3.068602192030807</v>
       </c>
       <c r="F40" t="n" s="22">
-        <v>1.1968859E7</v>
+        <v>1.2007922E7</v>
       </c>
       <c r="G40" t="n" s="23">
-        <v>1.928156155185622</v>
+        <v>1.930062924831983</v>
       </c>
       <c r="H40" t="n" s="22">
-        <v>1024112.0</v>
+        <v>1026383.0</v>
       </c>
       <c r="I40" t="n" s="22">
-        <v>929784.0</v>
+        <v>931977.0</v>
       </c>
       <c r="J40" t="n" s="22">
-        <v>334433.0</v>
+        <v>334841.0</v>
       </c>
     </row>
     <row r="41">
@@ -4311,31 +4311,31 @@
         <v>57</v>
       </c>
       <c r="B41" t="n" s="24">
-        <v>9526526.0</v>
+        <v>9535263.0</v>
       </c>
       <c r="C41" t="n" s="25">
-        <v>1.534701824496041</v>
+        <v>1.5326263440770345</v>
       </c>
       <c r="D41" t="n" s="24">
-        <v>8399680.0</v>
+        <v>8424003.0</v>
       </c>
       <c r="E41" t="n" s="25">
-        <v>1.3531694786937976</v>
+        <v>1.3540107829625643</v>
       </c>
       <c r="F41" t="n" s="24">
-        <v>2.0224332E7</v>
+        <v>2.0304819E7</v>
       </c>
       <c r="G41" t="n" s="25">
-        <v>3.25809421184739</v>
+        <v>3.263643646862798</v>
       </c>
       <c r="H41" t="n" s="26">
-        <v>614330.0</v>
+        <v>614648.0</v>
       </c>
       <c r="I41" t="n" s="26">
-        <v>230287.0</v>
+        <v>230560.0</v>
       </c>
       <c r="J41" t="n" s="26">
-        <v>1339784.0</v>
+        <v>1343817.0</v>
       </c>
     </row>
     <row r="42">
@@ -4343,31 +4343,31 @@
         <v>58</v>
       </c>
       <c r="B42" t="n" s="22">
-        <v>4602021.0</v>
+        <v>4607182.0</v>
       </c>
       <c r="C42" t="n" s="23">
-        <v>0.7413751901867581</v>
+        <v>0.7405237280982726</v>
       </c>
       <c r="D42" t="n" s="22">
-        <v>4145986.0</v>
+        <v>4153642.0</v>
       </c>
       <c r="E42" t="n" s="23">
-        <v>0.6679089815673672</v>
+        <v>0.6676251250820057</v>
       </c>
       <c r="F42" t="n" s="22">
-        <v>1.5430453E7</v>
+        <v>1.5477132E7</v>
       </c>
       <c r="G42" t="n" s="23">
-        <v>2.485811131140608</v>
+        <v>2.4876776061612227</v>
       </c>
       <c r="H42" t="n" s="22">
-        <v>374246.0</v>
+        <v>374499.0</v>
       </c>
       <c r="I42" t="n" s="22">
-        <v>237041.0</v>
+        <v>237308.0</v>
       </c>
       <c r="J42" t="n" s="22">
-        <v>1619334.0</v>
+        <v>1623491.0</v>
       </c>
     </row>
     <row r="43">
@@ -4375,31 +4375,31 @@
         <v>59</v>
       </c>
       <c r="B43" t="n" s="24">
-        <v>2.1491654E7</v>
+        <v>2.1565086E7</v>
       </c>
       <c r="C43" t="n" s="25">
-        <v>3.462256924007518</v>
+        <v>3.466209470665553</v>
       </c>
       <c r="D43" t="n" s="24">
-        <v>7508478.0</v>
+        <v>7533318.0</v>
       </c>
       <c r="E43" t="n" s="25">
-        <v>1.2095988491280438</v>
+        <v>1.2108487857240766</v>
       </c>
       <c r="F43" t="n" s="24">
-        <v>1.8851073E7</v>
+        <v>1.8912428E7</v>
       </c>
       <c r="G43" t="n" s="25">
-        <v>3.036865288228685</v>
+        <v>3.0398412066096276</v>
       </c>
       <c r="H43" t="n" s="26">
-        <v>1145284.0</v>
+        <v>1148048.0</v>
       </c>
       <c r="I43" t="n" s="26">
-        <v>182331.0</v>
+        <v>182543.0</v>
       </c>
       <c r="J43" t="n" s="26">
-        <v>908915.0</v>
+        <v>910712.0</v>
       </c>
     </row>
     <row r="44">
@@ -4407,31 +4407,31 @@
         <v>60</v>
       </c>
       <c r="B44" t="n" s="22">
-        <v>6592458.0</v>
+        <v>6608241.0</v>
       </c>
       <c r="C44" t="n" s="23">
-        <v>1.062030095809692</v>
+        <v>1.062158877485599</v>
       </c>
       <c r="D44" t="n" s="22">
-        <v>6308967.0</v>
+        <v>6324158.0</v>
       </c>
       <c r="E44" t="n" s="23">
-        <v>1.0163603359278415</v>
+        <v>1.0164975161047503</v>
       </c>
       <c r="F44" t="n" s="22">
-        <v>1.0030112E7</v>
+        <v>1.0056508E7</v>
       </c>
       <c r="G44" t="n" s="23">
-        <v>1.6158283918292604</v>
+        <v>1.6164073387615472</v>
       </c>
       <c r="H44" t="n" s="22">
-        <v>614413.0</v>
+        <v>615412.0</v>
       </c>
       <c r="I44" t="n" s="22">
-        <v>603191.0</v>
+        <v>604303.0</v>
       </c>
       <c r="J44" t="n" s="22">
-        <v>1326468.0</v>
+        <v>1329744.0</v>
       </c>
     </row>
     <row r="45">
@@ -4439,31 +4439,31 @@
         <v>61</v>
       </c>
       <c r="B45" t="n" s="24">
-        <v>1.292552E7</v>
+        <v>1.2940279E7</v>
       </c>
       <c r="C45" t="n" s="25">
-        <v>2.082272081822909</v>
+        <v>2.0799229654291467</v>
       </c>
       <c r="D45" t="n" s="24">
-        <v>2958959.0</v>
+        <v>2964012.0</v>
       </c>
       <c r="E45" t="n" s="25">
-        <v>0.4766816125740886</v>
+        <v>0.47641296054030796</v>
       </c>
       <c r="F45" t="n" s="24">
-        <v>1.5348319E7</v>
+        <v>1.5394848E7</v>
       </c>
       <c r="G45" t="n" s="25">
-        <v>2.4725795292268407</v>
+        <v>2.4744518958587345</v>
       </c>
       <c r="H45" t="n" s="26">
-        <v>888890.0</v>
+        <v>889520.0</v>
       </c>
       <c r="I45" t="n" s="26">
-        <v>111628.0</v>
+        <v>111755.0</v>
       </c>
       <c r="J45" t="n" s="26">
-        <v>1204828.0</v>
+        <v>1208761.0</v>
       </c>
     </row>
     <row r="46">
@@ -4471,31 +4471,31 @@
         <v>62</v>
       </c>
       <c r="B46" t="n" s="22">
-        <v>6567259.0</v>
+        <v>6576241.0</v>
       </c>
       <c r="C46" t="n" s="23">
-        <v>1.0579705938175203</v>
+        <v>1.0570154385463202</v>
       </c>
       <c r="D46" t="n" s="22">
-        <v>7791697.0</v>
+        <v>7802222.0</v>
       </c>
       <c r="E46" t="n" s="23">
-        <v>1.2552247904241622</v>
+        <v>1.2540703889905718</v>
       </c>
       <c r="F46" t="n" s="22">
-        <v>3536000.0</v>
+        <v>3545882.0</v>
       </c>
       <c r="G46" t="n" s="23">
-        <v>0.5696416145211802</v>
+        <v>0.5699383610277516</v>
       </c>
       <c r="H46" t="n" s="22">
-        <v>877651.0</v>
+        <v>879385.0</v>
       </c>
       <c r="I46" t="n" s="22">
-        <v>1095692.0</v>
+        <v>1097751.0</v>
       </c>
       <c r="J46" t="n" s="22">
-        <v>512001.0</v>
+        <v>514047.0</v>
       </c>
     </row>
     <row r="47">
@@ -4503,31 +4503,31 @@
         <v>63</v>
       </c>
       <c r="B47" t="n" s="24">
-        <v>1.038829E7</v>
+        <v>1.0413336E7</v>
       </c>
       <c r="C47" t="n" s="25">
-        <v>1.6735300587427127</v>
+        <v>1.6737611834435788</v>
       </c>
       <c r="D47" t="n" s="24">
-        <v>6195131.0</v>
+        <v>6206297.0</v>
       </c>
       <c r="E47" t="n" s="25">
-        <v>0.998021613407866</v>
+        <v>0.9975534268290519</v>
       </c>
       <c r="F47" t="n" s="24">
-        <v>4876125.0</v>
+        <v>4889270.0</v>
       </c>
       <c r="G47" t="n" s="25">
-        <v>0.7855327255676161</v>
+        <v>0.7858644282077507</v>
       </c>
       <c r="H47" t="n" s="26">
-        <v>1319357.0</v>
+        <v>1322668.0</v>
       </c>
       <c r="I47" t="n" s="26">
-        <v>658944.0</v>
+        <v>659852.0</v>
       </c>
       <c r="J47" t="n" s="26">
-        <v>405556.0</v>
+        <v>406522.0</v>
       </c>
     </row>
     <row r="48">
@@ -4535,31 +4535,31 @@
         <v>64</v>
       </c>
       <c r="B48" t="n" s="22">
-        <v>1.693337E7</v>
+        <v>1.6985097E7</v>
       </c>
       <c r="C48" t="n" s="23">
-        <v>2.7279276657478846</v>
+        <v>2.7300565405383996</v>
       </c>
       <c r="D48" t="n" s="22">
-        <v>1.0634689E7</v>
+        <v>1.0644945E7</v>
       </c>
       <c r="E48" t="n" s="23">
-        <v>1.7132243811907908</v>
+        <v>1.710988269358811</v>
       </c>
       <c r="F48" t="n" s="22">
-        <v>3345014.0</v>
+        <v>3354665.0</v>
       </c>
       <c r="G48" t="n" s="23">
-        <v>0.5388742012318868</v>
+        <v>0.5392035809136239</v>
       </c>
       <c r="H48" t="n" s="22">
-        <v>1365640.0</v>
+        <v>1369652.0</v>
       </c>
       <c r="I48" t="n" s="22">
-        <v>725577.0</v>
+        <v>726067.0</v>
       </c>
       <c r="J48" t="n" s="22">
-        <v>115052.0</v>
+        <v>115248.0</v>
       </c>
     </row>
     <row r="49">
@@ -4567,31 +4567,31 @@
         <v>65</v>
       </c>
       <c r="B49" t="n" s="24">
-        <v>9319504.0</v>
+        <v>9331333.0</v>
       </c>
       <c r="C49" t="n" s="25">
-        <v>1.501351047821436</v>
+        <v>1.4998481721118113</v>
       </c>
       <c r="D49" t="n" s="24">
-        <v>6472329.0</v>
+        <v>6481441.0</v>
       </c>
       <c r="E49" t="n" s="25">
-        <v>1.04267758520143</v>
+        <v>1.0417780006887065</v>
       </c>
       <c r="F49" t="n" s="24">
-        <v>1.2296436E7</v>
+        <v>1.2323784E7</v>
       </c>
       <c r="G49" t="n" s="25">
-        <v>1.9809280701064378</v>
+        <v>1.9808322032769363</v>
       </c>
       <c r="H49" t="n" s="26">
-        <v>743003.0</v>
+        <v>743934.0</v>
       </c>
       <c r="I49" t="n" s="26">
-        <v>320294.0</v>
+        <v>320826.0</v>
       </c>
       <c r="J49" t="n" s="26">
-        <v>1217137.0</v>
+        <v>1220697.0</v>
       </c>
     </row>
     <row r="50">
@@ -4602,28 +4602,28 @@
         <v>5006.0</v>
       </c>
       <c r="C50" t="n" s="23">
-        <v>8.06455294766128E-4</v>
+        <v>8.04626729063439E-4</v>
       </c>
       <c r="D50" t="n" s="22">
-        <v>6685023.0</v>
+        <v>6690580.0</v>
       </c>
       <c r="E50" t="n" s="23">
-        <v>1.076942108266749</v>
+        <v>1.075393428073764</v>
       </c>
       <c r="F50" t="n" s="22">
-        <v>1.2885753E7</v>
+        <v>1.2904534E7</v>
       </c>
       <c r="G50" t="n" s="23">
-        <v>2.075865707930187</v>
+        <v>2.074177583401505</v>
       </c>
       <c r="H50" t="n" s="22">
-        <v>256201.0</v>
+        <v>256406.0</v>
       </c>
       <c r="I50" t="n" s="22">
-        <v>697066.0</v>
+        <v>698032.0</v>
       </c>
       <c r="J50" t="n" s="22">
-        <v>1675535.0</v>
+        <v>1679561.0</v>
       </c>
     </row>
     <row r="51">
@@ -4631,31 +4631,31 @@
         <v>67</v>
       </c>
       <c r="B51" t="n" s="24">
-        <v>8240405.0</v>
+        <v>8261947.0</v>
       </c>
       <c r="C51" t="n" s="25">
-        <v>1.3275106358903865</v>
+        <v>1.3279631223143213</v>
       </c>
       <c r="D51" t="n" s="24">
-        <v>5755667.0</v>
+        <v>5762215.0</v>
       </c>
       <c r="E51" t="n" s="25">
-        <v>0.9272249554655764</v>
+        <v>0.9261750314842757</v>
       </c>
       <c r="F51" t="n" s="24">
-        <v>7079618.0</v>
+        <v>7091275.0</v>
       </c>
       <c r="G51" t="n" s="25">
-        <v>1.1405104716383512</v>
+        <v>1.1397981238792125</v>
       </c>
       <c r="H51" t="n" s="26">
-        <v>990204.0</v>
+        <v>993455.0</v>
       </c>
       <c r="I51" t="n" s="26">
-        <v>618951.0</v>
+        <v>619681.0</v>
       </c>
       <c r="J51" t="n" s="26">
-        <v>785865.0</v>
+        <v>787257.0</v>
       </c>
     </row>
     <row r="52">
@@ -4663,31 +4663,31 @@
         <v>68</v>
       </c>
       <c r="B52" t="n" s="22">
-        <v>4179.0</v>
+        <v>4183.0</v>
       </c>
       <c r="C52" t="n" s="23">
-        <v>6.732274624106371E-4</v>
+        <v>6.723439088438604E-4</v>
       </c>
       <c r="D52" t="n" s="22">
-        <v>6732534.0</v>
+        <v>6737336.0</v>
       </c>
       <c r="E52" t="n" s="23">
-        <v>1.0845960230709106</v>
+        <v>1.082908635293918</v>
       </c>
       <c r="F52" t="n" s="22">
-        <v>3135376.0</v>
+        <v>3137892.0</v>
       </c>
       <c r="G52" t="n" s="23">
-        <v>0.5051019928650906</v>
+        <v>0.5043611218766145</v>
       </c>
       <c r="H52" t="n" s="22">
-        <v>358792.0</v>
+        <v>360296.0</v>
       </c>
       <c r="I52" t="n" s="22">
-        <v>1659856.0</v>
+        <v>1663582.0</v>
       </c>
       <c r="J52" t="n" s="22">
-        <v>848844.0</v>
+        <v>851420.0</v>
       </c>
     </row>
     <row r="53">
@@ -4695,31 +4695,31 @@
         <v>69</v>
       </c>
       <c r="B53" t="n" s="24">
-        <v>9523828.0</v>
+        <v>9542865.0</v>
       </c>
       <c r="C53" t="n" s="25">
-        <v>1.5342671827890337</v>
+        <v>1.5338482322900466</v>
       </c>
       <c r="D53" t="n" s="24">
-        <v>4699269.0</v>
+        <v>4704083.0</v>
       </c>
       <c r="E53" t="n" s="25">
-        <v>0.7570416233680239</v>
+        <v>0.7560988648687433</v>
       </c>
       <c r="F53" t="n" s="24">
-        <v>1.2783968E7</v>
+        <v>1.2808367E7</v>
       </c>
       <c r="G53" t="n" s="25">
-        <v>2.0594683742949957</v>
+        <v>2.058720424261704</v>
       </c>
       <c r="H53" t="n" s="26">
-        <v>853226.0</v>
+        <v>855080.0</v>
       </c>
       <c r="I53" t="n" s="26">
-        <v>250466.0</v>
+        <v>250724.0</v>
       </c>
       <c r="J53" t="n" s="26">
-        <v>1272330.0</v>
+        <v>1275345.0</v>
       </c>
     </row>
     <row r="54">
@@ -4727,31 +4727,31 @@
         <v>70</v>
       </c>
       <c r="B54" t="n" s="22">
-        <v>4689574.0</v>
+        <v>4694401.0</v>
       </c>
       <c r="C54" t="n" s="23">
-        <v>0.7554797807625989</v>
+        <v>0.7545426531246777</v>
       </c>
       <c r="D54" t="n" s="22">
-        <v>1.3373693E7</v>
+        <v>1.3403306E7</v>
       </c>
       <c r="E54" t="n" s="23">
-        <v>2.154471739997344</v>
+        <v>2.154346437358443</v>
       </c>
       <c r="F54" t="n" s="22">
-        <v>9503039.0</v>
+        <v>9518793.0</v>
       </c>
       <c r="G54" t="n" s="23">
-        <v>1.530918121837597</v>
+        <v>1.5299790803479743</v>
       </c>
       <c r="H54" t="n" s="22">
-        <v>234228.0</v>
+        <v>234477.0</v>
       </c>
       <c r="I54" t="n" s="22">
-        <v>1238469.0</v>
+        <v>1241947.0</v>
       </c>
       <c r="J54" t="n" s="22">
-        <v>772593.0</v>
+        <v>773869.0</v>
       </c>
     </row>
     <row r="55">
@@ -4759,31 +4759,31 @@
         <v>71</v>
       </c>
       <c r="B55" t="n" s="24">
-        <v>5344769.0</v>
+        <v>5360274.0</v>
       </c>
       <c r="C55" t="n" s="25">
-        <v>0.8610302156116387</v>
+        <v>0.8615700630251291</v>
       </c>
       <c r="D55" t="n" s="24">
-        <v>7670182.0</v>
+        <v>7688618.0</v>
       </c>
       <c r="E55" t="n" s="25">
-        <v>1.2356489983459547</v>
+        <v>1.2358105378262645</v>
       </c>
       <c r="F55" t="n" s="24">
-        <v>5894471.0</v>
+        <v>5903956.0</v>
       </c>
       <c r="G55" t="n" s="25">
-        <v>0.9495859663993994</v>
+        <v>0.9489574120684108</v>
       </c>
       <c r="H55" t="n" s="26">
-        <v>591308.0</v>
+        <v>593138.0</v>
       </c>
       <c r="I55" t="n" s="26">
-        <v>1039671.0</v>
+        <v>1042257.0</v>
       </c>
       <c r="J55" t="n" s="26">
-        <v>835594.0</v>
+        <v>836598.0</v>
       </c>
     </row>
     <row r="56">
@@ -4791,31 +4791,31 @@
         <v>72</v>
       </c>
       <c r="B56" t="n" s="22">
-        <v>6061676.0</v>
+        <v>6078419.0</v>
       </c>
       <c r="C56" t="n" s="23">
-        <v>0.9765223142941997</v>
+        <v>0.9769992804328924</v>
       </c>
       <c r="D56" t="n" s="22">
-        <v>1.7976224E7</v>
+        <v>1.8022941E7</v>
       </c>
       <c r="E56" t="n" s="23">
-        <v>2.89592909003235</v>
+        <v>2.896871766866429</v>
       </c>
       <c r="F56" t="n" s="22">
-        <v>5977528.0</v>
+        <v>5984603.0</v>
       </c>
       <c r="G56" t="n" s="23">
-        <v>0.9629662615287223</v>
+        <v>0.9619200033226616</v>
       </c>
       <c r="H56" t="n" s="22">
-        <v>254027.0</v>
+        <v>254511.0</v>
       </c>
       <c r="I56" t="n" s="22">
-        <v>1582759.0</v>
+        <v>1586803.0</v>
       </c>
       <c r="J56" t="n" s="22">
-        <v>416900.0</v>
+        <v>417176.0</v>
       </c>
     </row>
     <row r="57">
@@ -4823,31 +4823,31 @@
         <v>73</v>
       </c>
       <c r="B57" t="n" s="24">
-        <v>4983952.0</v>
+        <v>4988774.0</v>
       </c>
       <c r="C57" t="n" s="25">
-        <v>0.8029034117579371</v>
+        <v>0.8018579515894384</v>
       </c>
       <c r="D57" t="n" s="24">
-        <v>7154688.0</v>
+        <v>7170294.0</v>
       </c>
       <c r="E57" t="n" s="25">
-        <v>1.1526040791050098</v>
+        <v>1.1524990426774275</v>
       </c>
       <c r="F57" t="n" s="24">
-        <v>8247333.0</v>
+        <v>8266089.0</v>
       </c>
       <c r="G57" t="n" s="25">
-        <v>1.3286267210446294</v>
+        <v>1.328628876192024</v>
       </c>
       <c r="H57" t="n" s="26">
-        <v>527900.0</v>
+        <v>528404.0</v>
       </c>
       <c r="I57" t="n" s="26">
-        <v>807768.0</v>
+        <v>809695.0</v>
       </c>
       <c r="J57" t="n" s="26">
-        <v>1058501.0</v>
+        <v>1061366.0</v>
       </c>
     </row>
     <row r="58">
@@ -4855,31 +4855,31 @@
         <v>74</v>
       </c>
       <c r="B58" t="n" s="22">
-        <v>5803.0</v>
+        <v>5804.0</v>
       </c>
       <c r="C58" t="n" s="23">
-        <v>9.348501948717221E-4</v>
+        <v>9.328912376117058E-4</v>
       </c>
       <c r="D58" t="n" s="22">
-        <v>1.7060923E7</v>
+        <v>1.7111045E7</v>
       </c>
       <c r="E58" t="n" s="23">
-        <v>2.748476165990254</v>
+        <v>2.750300473273534</v>
       </c>
       <c r="F58" t="n" s="22">
-        <v>1.8742712E7</v>
+        <v>1.8771145E7</v>
       </c>
       <c r="G58" t="n" s="23">
-        <v>3.0194085758443157</v>
+        <v>3.017132441495311</v>
       </c>
       <c r="H58" t="n" s="22">
-        <v>7632.0</v>
+        <v>7639.0</v>
       </c>
       <c r="I58" t="n" s="22">
-        <v>1027621.0</v>
+        <v>1031183.0</v>
       </c>
       <c r="J58" t="n" s="22">
-        <v>1076644.0</v>
+        <v>1077795.0</v>
       </c>
     </row>
     <row r="59">
@@ -4887,31 +4887,31 @@
         <v>75</v>
       </c>
       <c r="B59" t="n" s="24">
-        <v>3813811.0</v>
+        <v>3825109.0</v>
       </c>
       <c r="C59" t="n" s="25">
-        <v>0.6143963392303838</v>
+        <v>0.6148192055495649</v>
       </c>
       <c r="D59" t="n" s="24">
-        <v>2.0419909E7</v>
+        <v>2.0488237E7</v>
       </c>
       <c r="E59" t="n" s="25">
-        <v>3.2896012248686595</v>
+        <v>3.293124874467943</v>
       </c>
       <c r="F59" t="n" s="24">
-        <v>1.5043317E7</v>
+        <v>1.5063084E7</v>
       </c>
       <c r="G59" t="n" s="25">
-        <v>2.423444395824072</v>
+        <v>2.421126649725893</v>
       </c>
       <c r="H59" t="n" s="26">
-        <v>92248.0</v>
+        <v>92376.0</v>
       </c>
       <c r="I59" t="n" s="26">
-        <v>1209050.0</v>
+        <v>1213009.0</v>
       </c>
       <c r="J59" t="n" s="26">
-        <v>855476.0</v>
+        <v>856041.0</v>
       </c>
     </row>
     <row r="60">
@@ -4919,31 +4919,31 @@
         <v>76</v>
       </c>
       <c r="B60" t="n" s="22">
-        <v>8724815.0</v>
+        <v>8745251.0</v>
       </c>
       <c r="C60" t="n" s="23">
-        <v>1.4055479929294716</v>
+        <v>1.4056457664739848</v>
       </c>
       <c r="D60" t="n" s="22">
-        <v>2.4963803E7</v>
+        <v>2.5038684E7</v>
       </c>
       <c r="E60" t="n" s="23">
-        <v>4.02161228662576</v>
+        <v>4.024529446059341</v>
       </c>
       <c r="F60" t="n" s="22">
-        <v>1.0812746E7</v>
+        <v>1.0822071E7</v>
       </c>
       <c r="G60" t="n" s="23">
-        <v>1.7419089617781207</v>
+        <v>1.739458168282521</v>
       </c>
       <c r="H60" t="n" s="22">
-        <v>205227.0</v>
+        <v>205495.0</v>
       </c>
       <c r="I60" t="n" s="22">
-        <v>1517659.0</v>
+        <v>1521756.0</v>
       </c>
       <c r="J60" t="n" s="22">
-        <v>426068.0</v>
+        <v>426276.0</v>
       </c>
     </row>
     <row r="61">
@@ -4951,31 +4951,31 @@
         <v>77</v>
       </c>
       <c r="B61" t="n" s="24">
-        <v>2758071.0</v>
+        <v>2761592.0</v>
       </c>
       <c r="C61" t="n" s="25">
-        <v>0.4443190094468457</v>
+        <v>0.443877494600032</v>
       </c>
       <c r="D61" t="n" s="24">
-        <v>9462794.0</v>
+        <v>9490006.0</v>
       </c>
       <c r="E61" t="n" s="25">
-        <v>1.5244347432243601</v>
+        <v>1.5253520748246923</v>
       </c>
       <c r="F61" t="n" s="24">
-        <v>9551074.0</v>
+        <v>9560597.0</v>
       </c>
       <c r="G61" t="n" s="25">
-        <v>1.53865645185839</v>
+        <v>1.5366983403922747</v>
       </c>
       <c r="H61" t="n" s="26">
-        <v>184147.0</v>
+        <v>184395.0</v>
       </c>
       <c r="I61" t="n" s="26">
-        <v>1065832.0</v>
+        <v>1069649.0</v>
       </c>
       <c r="J61" t="n" s="26">
-        <v>1044309.0</v>
+        <v>1045220.0</v>
       </c>
     </row>
     <row r="62">
@@ -4983,31 +4983,31 @@
         <v>78</v>
       </c>
       <c r="B62" t="n" s="22">
-        <v>9948263.0</v>
+        <v>9954780.0</v>
       </c>
       <c r="C62" t="n" s="23">
-        <v>1.6026427027718666</v>
+        <v>1.60005634637358</v>
       </c>
       <c r="D62" t="n" s="22">
-        <v>1.1093875E7</v>
+        <v>1.1112612E7</v>
       </c>
       <c r="E62" t="n" s="23">
-        <v>1.7871982087941627</v>
+        <v>1.7861575399343028</v>
       </c>
       <c r="F62" t="n" s="22">
-        <v>5906278.0</v>
+        <v>5915500.0</v>
       </c>
       <c r="G62" t="n" s="23">
-        <v>0.9514880474352172</v>
+        <v>0.9508129076657558</v>
       </c>
       <c r="H62" t="n" s="22">
-        <v>817954.0</v>
+        <v>818659.0</v>
       </c>
       <c r="I62" t="n" s="22">
-        <v>1137789.0</v>
+        <v>1141244.0</v>
       </c>
       <c r="J62" t="n" s="22">
-        <v>600856.0</v>
+        <v>602035.0</v>
       </c>
     </row>
     <row r="63">
@@ -5015,31 +5015,31 @@
         <v>79</v>
       </c>
       <c r="B63" t="n" s="24">
-        <v>1.1436443E7</v>
+        <v>1.1464739E7</v>
       </c>
       <c r="C63" t="n" s="25">
-        <v>1.842385139960252</v>
+        <v>1.8427557812896609</v>
       </c>
       <c r="D63" t="n" s="24">
-        <v>8041731.0</v>
+        <v>8054129.0</v>
       </c>
       <c r="E63" t="n" s="25">
-        <v>1.295504703163186</v>
+        <v>1.2945600225179756</v>
       </c>
       <c r="F63" t="n" s="24">
-        <v>6331459.0</v>
+        <v>6340940.0</v>
       </c>
       <c r="G63" t="n" s="25">
-        <v>1.019983746333331</v>
+        <v>1.0191949283634685</v>
       </c>
       <c r="H63" t="n" s="26">
-        <v>1063182.0</v>
+        <v>1066659.0</v>
       </c>
       <c r="I63" t="n" s="26">
-        <v>781581.0</v>
+        <v>782662.0</v>
       </c>
       <c r="J63" t="n" s="26">
-        <v>467310.0</v>
+        <v>467974.0</v>
       </c>
     </row>
     <row r="64">
@@ -5047,31 +5047,31 @@
         <v>80</v>
       </c>
       <c r="B64" t="n" s="22">
-        <v>9487840.0</v>
+        <v>9499927.0</v>
       </c>
       <c r="C64" t="n" s="23">
-        <v>1.5284695972620574</v>
+        <v>1.5269467016283356</v>
       </c>
       <c r="D64" t="n" s="22">
-        <v>1.7444588E7</v>
+        <v>1.7470309E7</v>
       </c>
       <c r="E64" t="n" s="23">
-        <v>2.8102837310454776</v>
+        <v>2.8080458622448177</v>
       </c>
       <c r="F64" t="n" s="22">
-        <v>3199866.0</v>
+        <v>3203000.0</v>
       </c>
       <c r="G64" t="n" s="23">
-        <v>0.5154911862249523</v>
+        <v>0.5148260913284448</v>
       </c>
       <c r="H64" t="n" s="22">
-        <v>589350.0</v>
+        <v>590318.0</v>
       </c>
       <c r="I64" t="n" s="22">
-        <v>1496012.0</v>
+        <v>1499835.0</v>
       </c>
       <c r="J64" t="n" s="22">
-        <v>128839.0</v>
+        <v>129015.0</v>
       </c>
     </row>
     <row r="65">
@@ -5079,31 +5079,31 @@
         <v>81</v>
       </c>
       <c r="B65" t="n" s="24">
-        <v>1.2705405E7</v>
+        <v>1.2729468E7</v>
       </c>
       <c r="C65" t="n" s="25">
-        <v>2.0468120524167075</v>
+        <v>2.0460387933595117</v>
       </c>
       <c r="D65" t="n" s="24">
-        <v>8342706.0</v>
+        <v>8353895.0</v>
       </c>
       <c r="E65" t="n" s="25">
-        <v>1.3439910959602765</v>
+        <v>1.3427421511764717</v>
       </c>
       <c r="F65" t="n" s="24">
-        <v>1.2284617E7</v>
+        <v>1.229916E7</v>
       </c>
       <c r="G65" t="n" s="25">
-        <v>1.9790240558977201</v>
+        <v>1.9768743270131612</v>
       </c>
       <c r="H65" t="n" s="26">
-        <v>1104665.0</v>
+        <v>1108136.0</v>
       </c>
       <c r="I65" t="n" s="26">
-        <v>416439.0</v>
+        <v>417132.0</v>
       </c>
       <c r="J65" t="n" s="26">
-        <v>988783.0</v>
+        <v>989966.0</v>
       </c>
     </row>
     <row r="67">
@@ -5111,31 +5111,31 @@
         <v>82</v>
       </c>
       <c r="B67" t="n" s="24">
-        <v>6.20741166E8</v>
+        <v>6.2215184E8</v>
       </c>
       <c r="C67" t="n" s="25">
         <v>99.99999999999997</v>
       </c>
       <c r="D67" t="n" s="24">
-        <v>6.20741166E8</v>
+        <v>6.2215184E8</v>
       </c>
       <c r="E67" t="n" s="25">
+        <v>100.00000000000001</v>
+      </c>
+      <c r="F67" t="n" s="24">
+        <v>6.2215184E8</v>
+      </c>
+      <c r="G67" t="n" s="25">
         <v>99.99999999999999</v>
       </c>
-      <c r="F67" t="n" s="24">
-        <v>6.20741166E8</v>
-      </c>
-      <c r="G67" t="n" s="25">
-        <v>100.0</v>
-      </c>
       <c r="H67" t="n" s="24">
-        <v>-8.82714899E8</v>
+        <v>-8.32973965E8</v>
       </c>
       <c r="I67" t="n" s="24">
-        <v>-6.54954342E8</v>
+        <v>-6.0329262E8</v>
       </c>
       <c r="J67" t="n" s="24">
-        <v>-7.09750082E8</v>
+        <v>-6.58787941E8</v>
       </c>
     </row>
     <row r="68"/>
@@ -5144,16 +5144,16 @@
         <v>83</v>
       </c>
       <c r="B71" t="n" s="31">
-        <v>6.535755E7</v>
+        <v>6.546671E7</v>
       </c>
       <c r="C71" t="n" s="32">
-        <v>7.015601111303427</v>
+        <v>7.011384926871473</v>
       </c>
       <c r="D71" t="n" s="31">
-        <v>6.5555109E7</v>
+        <v>6.5664798E7</v>
       </c>
       <c r="E71" t="n" s="32">
-        <v>7.036807462213888</v>
+        <v>7.032599849958247</v>
       </c>
     </row>
     <row r="72">
@@ -5161,16 +5161,16 @@
         <v>84</v>
       </c>
       <c r="B72" t="n" s="29">
-        <v>4.944541E7</v>
+        <v>4.9554437E7</v>
       </c>
       <c r="C72" t="n" s="30">
-        <v>5.307562375652906</v>
+        <v>5.307204724987739</v>
       </c>
       <c r="D72" t="n" s="29">
-        <v>4.9496198E7</v>
+        <v>4.9606361E7</v>
       </c>
       <c r="E72" t="n" s="30">
-        <v>5.313014054139032</v>
+        <v>5.31276570630088</v>
       </c>
     </row>
     <row r="73">
@@ -5178,16 +5178,16 @@
         <v>85</v>
       </c>
       <c r="B73" t="n" s="31">
-        <v>4.8031855E7</v>
+        <v>4.8132733E7</v>
       </c>
       <c r="C73" t="n" s="32">
-        <v>5.155828749944958</v>
+        <v>5.154942392023811</v>
       </c>
       <c r="D73" t="n" s="31">
-        <v>4.8264846E7</v>
+        <v>4.8366384E7</v>
       </c>
       <c r="E73" t="n" s="32">
-        <v>5.180838437709014</v>
+        <v>5.179966058243611</v>
       </c>
     </row>
     <row r="74">
@@ -5195,16 +5195,16 @@
         <v>86</v>
       </c>
       <c r="B74" t="n" s="29">
-        <v>5.8784123E7</v>
+        <v>5.8892412E7</v>
       </c>
       <c r="C74" t="n" s="30">
-        <v>6.309997217548659</v>
+        <v>6.307287624563762</v>
       </c>
       <c r="D74" t="n" s="29">
-        <v>5.7138619E7</v>
+        <v>5.7242926E7</v>
       </c>
       <c r="E74" t="n" s="30">
-        <v>6.133365754296835</v>
+        <v>6.130630186340801</v>
       </c>
     </row>
     <row r="75">
@@ -5212,16 +5212,16 @@
         <v>87</v>
       </c>
       <c r="B75" t="n" s="31">
-        <v>5.7988662E7</v>
+        <v>5.8115064E7</v>
       </c>
       <c r="C75" t="n" s="32">
-        <v>6.224610952677981</v>
+        <v>6.224034837763666</v>
       </c>
       <c r="D75" t="n" s="31">
-        <v>5.7885114E7</v>
+        <v>5.8010206E7</v>
       </c>
       <c r="E75" t="n" s="32">
-        <v>6.21349591755391</v>
+        <v>6.212804705675741</v>
       </c>
     </row>
     <row r="76">
@@ -5229,16 +5229,16 @@
         <v>88</v>
       </c>
       <c r="B76" t="n" s="29">
-        <v>5.5941297E7</v>
+        <v>5.6087098E7</v>
       </c>
       <c r="C76" t="n" s="30">
-        <v>6.00484298142992</v>
+        <v>6.0068427680138985</v>
       </c>
       <c r="D76" t="n" s="29">
-        <v>5.6028675E7</v>
+        <v>5.6175299E7</v>
       </c>
       <c r="E76" t="n" s="30">
-        <v>6.014222298645811</v>
+        <v>6.016288960772553</v>
       </c>
     </row>
     <row r="77">
@@ -5246,16 +5246,16 @@
         <v>89</v>
       </c>
       <c r="B77" t="n" s="31">
-        <v>7.3256723E7</v>
+        <v>7.3483735E7</v>
       </c>
       <c r="C77" t="n" s="32">
-        <v>7.86351304920774</v>
+        <v>7.869996093422409</v>
       </c>
       <c r="D77" t="n" s="31">
-        <v>7.3204073E7</v>
+        <v>7.3430335E7</v>
       </c>
       <c r="E77" t="n" s="32">
-        <v>7.857861500174613</v>
+        <v>7.864277034757403</v>
       </c>
     </row>
     <row r="78">
@@ -5263,16 +5263,16 @@
         <v>90</v>
       </c>
       <c r="B78" t="n" s="29">
-        <v>5.1734166E7</v>
+        <v>5.1853461E7</v>
       </c>
       <c r="C78" t="n" s="30">
-        <v>5.553241706305637</v>
+        <v>5.553426693681686</v>
       </c>
       <c r="D78" t="n" s="29">
-        <v>5.163977E7</v>
+        <v>5.1759356E7</v>
       </c>
       <c r="E78" t="n" s="30">
-        <v>5.543109063902386</v>
+        <v>5.543348191515574</v>
       </c>
     </row>
     <row r="79">
@@ -5280,16 +5280,16 @@
         <v>91</v>
       </c>
       <c r="B79" t="n" s="31">
-        <v>5.8394021E7</v>
+        <v>5.8524657E7</v>
       </c>
       <c r="C79" t="n" s="32">
-        <v>6.268122942507418</v>
+        <v>6.267901624201415</v>
       </c>
       <c r="D79" t="n" s="31">
-        <v>5.7651126E7</v>
+        <v>5.7779545E7</v>
       </c>
       <c r="E79" t="n" s="32">
-        <v>6.188379209953462</v>
+        <v>6.188101263901791</v>
       </c>
     </row>
     <row r="80">
@@ -5297,16 +5297,16 @@
         <v>92</v>
       </c>
       <c r="B80" t="n" s="29">
-        <v>8.5052683E7</v>
+        <v>8.5313517E7</v>
       </c>
       <c r="C80" t="n" s="30">
-        <v>9.129713359422716</v>
+        <v>9.136947727359344</v>
       </c>
       <c r="D80" t="n" s="29">
-        <v>8.483303E7</v>
+        <v>8.5093304E7</v>
       </c>
       <c r="E80" t="n" s="30">
-        <v>9.106135397413718</v>
+        <v>9.113363250471759</v>
       </c>
     </row>
     <row r="81">
@@ -5314,16 +5314,16 @@
         <v>93</v>
       </c>
       <c r="B81" t="n" s="31">
-        <v>6.3286574E7</v>
+        <v>6.345822E7</v>
       </c>
       <c r="C81" t="n" s="32">
-        <v>6.793298691352209</v>
+        <v>6.796278707057279</v>
       </c>
       <c r="D81" t="n" s="31">
-        <v>6.2907426E7</v>
+        <v>6.3078614E7</v>
       </c>
       <c r="E81" t="n" s="32">
-        <v>6.752600239067072</v>
+        <v>6.755623482645514</v>
       </c>
     </row>
     <row r="82">
@@ -5331,16 +5331,16 @@
         <v>94</v>
       </c>
       <c r="B82" t="n" s="29">
-        <v>4.950034E7</v>
+        <v>4.9599709E7</v>
       </c>
       <c r="C82" t="n" s="30">
-        <v>5.3134586641313435</v>
+        <v>5.312053287232723</v>
       </c>
       <c r="D82" t="n" s="29">
-        <v>4.8855504E7</v>
+        <v>4.8954804E7</v>
       </c>
       <c r="E82" t="n" s="30">
-        <v>5.244240767221064</v>
+        <v>5.242984944005088</v>
       </c>
     </row>
     <row r="83">
@@ -5348,16 +5348,16 @@
         <v>95</v>
       </c>
       <c r="B83" t="n" s="31">
-        <v>3.8714539E7</v>
+        <v>3.8774038E7</v>
       </c>
       <c r="C83" t="n" s="32">
-        <v>4.1556907018699425</v>
+        <v>4.152640412006984</v>
       </c>
       <c r="D83" t="n" s="31">
-        <v>3.9440855E7</v>
+        <v>3.9502411E7</v>
       </c>
       <c r="E83" t="n" s="32">
-        <v>4.2336548136941685</v>
+        <v>4.230648050902235</v>
       </c>
     </row>
     <row r="84">
@@ -5365,16 +5365,16 @@
         <v>96</v>
       </c>
       <c r="B84" t="n" s="29">
-        <v>4.8318242E7</v>
+        <v>4.8420144E7</v>
       </c>
       <c r="C84" t="n" s="30">
-        <v>5.186570063771177</v>
+        <v>5.185723672360291</v>
       </c>
       <c r="D84" t="n" s="29">
-        <v>4.8558887E7</v>
+        <v>4.8660324E7</v>
       </c>
       <c r="E84" t="n" s="30">
-        <v>5.2124013461468115</v>
+        <v>5.211446584535594</v>
       </c>
     </row>
     <row r="85">
@@ -5382,16 +5382,16 @@
         <v>97</v>
       </c>
       <c r="B85" t="n" s="31">
-        <v>6.9671934E7</v>
+        <v>6.9831579E7</v>
       </c>
       <c r="C85" t="n" s="32">
-        <v>7.478715123150409</v>
+        <v>7.478855748520654</v>
       </c>
       <c r="D85" t="n" s="31">
-        <v>7.2045566E7</v>
+        <v>7.220955E7</v>
       </c>
       <c r="E85" t="n" s="32">
-        <v>7.733505201680363</v>
+        <v>7.733532820668275</v>
       </c>
     </row>
     <row r="86">
@@ -5399,16 +5399,16 @@
         <v>98</v>
       </c>
       <c r="B86" t="n" s="29">
-        <v>5.8124875E7</v>
+        <v>5.8212581E7</v>
       </c>
       <c r="C86" t="n" s="30">
-        <v>6.239232309723556</v>
+        <v>6.234478759932868</v>
       </c>
       <c r="D86" t="n" s="29">
-        <v>5.8098196E7</v>
+        <v>5.8185878E7</v>
       </c>
       <c r="E86" t="n" s="30">
-        <v>6.236368536187851</v>
+        <v>6.231618909304935</v>
       </c>
     </row>
     <row r="88">
@@ -5416,13 +5416,13 @@
         <v>82</v>
       </c>
       <c r="B88" t="n" s="31">
-        <v>9.31602994E8</v>
+        <v>9.33720095E8</v>
       </c>
       <c r="C88" t="n" s="32">
-        <v>100.0</v>
+        <v>100.00000000000003</v>
       </c>
       <c r="D88" t="n" s="31">
-        <v>9.31602994E8</v>
+        <v>9.33720095E8</v>
       </c>
       <c r="E88" t="n" s="32">
         <v>100.0</v>
